--- a/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,25 +57,25 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-0.5 - x</t>
-  </si>
-  <si>
-    <t>-0.7808768926451601</t>
+    <t>4.5 - x</t>
+  </si>
+  <si>
+    <t>-5.0</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.17981084380637158</t>
-  </si>
-  <si>
-    <t>-0.5 + x</t>
-  </si>
-  <si>
-    <t>-0.21912310735483986</t>
-  </si>
-  <si>
-    <t>0.2598940213925963</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>-4.5 + x</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -87,40 +87,37 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1 - y</t>
-  </si>
-  <si>
-    <t>-2.577825904324759</t>
+    <t>2.8 - y</t>
+  </si>
+  <si>
+    <t>-3.8</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.8998025943088924</t>
-  </si>
-  <si>
-    <t>0.7969084019911976</t>
-  </si>
-  <si>
-    <t>0.2708110101421426</t>
-  </si>
-  <si>
-    <t>-1 + y</t>
-  </si>
-  <si>
-    <t>0.5778259043247591</t>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>5.6000000000000005</t>
+  </si>
+  <si>
+    <t>-2.8 + y</t>
+  </si>
+  <si>
+    <t>1.7999999999999998</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.5752547170524925</t>
-  </si>
-  <si>
-    <t>0.8695430640734058</t>
-  </si>
-  <si>
-    <t>0.08015886955543704</t>
+    <t>0.82</t>
+  </si>
+  <si>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>7.199999999999999</t>
   </si>
   <si>
     <t>x</t>
@@ -129,25 +126,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>0.28087689264516014</t>
-  </si>
-  <si>
-    <t>1.577825904324759</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>2.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.04367098461123975</t>
+    <t>-5.23</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.9199168224137753</t>
-  </si>
-  <si>
-    <t>0.9273653379177919</t>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>-1.6999999999999984</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -629,27 +626,27 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +664,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -696,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -719,17 +716,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/nonconvex/MorganPatrone2006a/Experimentos_Generador/MorganPatrone2006a__Strong_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,67 +57,70 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>4.5 - x</t>
-  </si>
-  <si>
-    <t>-5.0</t>
+    <t>2.8499999999999996 - x</t>
+  </si>
+  <si>
+    <t>-3.3499999999999996</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>-4.5 + x</t>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>-2.8499999999999996 + x</t>
+  </si>
+  <si>
+    <t>2.3499999999999996</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>Lambda_value</t>
+  </si>
+  <si>
+    <t>Beta_value</t>
+  </si>
+  <si>
+    <t>Gamma_value</t>
+  </si>
+  <si>
+    <t>4.449999999999999 - y</t>
+  </si>
+  <si>
+    <t>-5.449999999999999</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.19</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>Lambda_value</t>
-  </si>
-  <si>
-    <t>Beta_value</t>
-  </si>
-  <si>
-    <t>Gamma_value</t>
-  </si>
-  <si>
-    <t>2.8 - y</t>
-  </si>
-  <si>
-    <t>-3.8</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>5.6000000000000005</t>
-  </si>
-  <si>
-    <t>-2.8 + y</t>
-  </si>
-  <si>
-    <t>1.7999999999999998</t>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-4.449999999999999 + y</t>
+  </si>
+  <si>
+    <t>3.4499999999999993</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.82</t>
-  </si>
-  <si>
-    <t>8.299999999999999</t>
-  </si>
-  <si>
-    <t>7.199999999999999</t>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
   </si>
   <si>
     <t>x</t>
@@ -126,25 +129,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>2.8</t>
+    <t>2.8499999999999996</t>
+  </si>
+  <si>
+    <t>4.449999999999999</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-5.23</t>
+    <t>-3.4499999999999997</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.34</t>
-  </si>
-  <si>
-    <t>-1.6999999999999984</t>
+    <t>1.21</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -626,27 +629,27 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -664,18 +667,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -693,12 +696,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -716,17 +719,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
